--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641979.4357842561</v>
+        <v>639722.4138751731</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>190.0910713444383</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>128.2917141720169</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.9069145994737</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>282.9166411735844</v>
+        <v>372.0445717845308</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.50343408519516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>223.3593330834799</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>175.5940282806595</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>31.40890880598822</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292631</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734026365</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>74.75769145492484</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>79.06237728605774</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004751</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2118382056118</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.89692476394272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>115.5285523993648</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>42.3206982334432</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>132.4218048038474</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>122.9130335217711</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.8228810500187</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>97.27989568773773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>53.82704427691628</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +2998,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>7.549022076204714</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>134.0393882137441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935318</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>166.1905658102225</v>
       </c>
       <c r="D37" t="n">
-        <v>51.92762496907457</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>142.8274524809617</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164199</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877637</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172074</v>
+        <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354225</v>
+        <v>251.0813880354226</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>285.4667430481856</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>224.6534001006318</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3670,7 +3670,7 @@
         <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433909</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1739.708500331692</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>1370.74598339128</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>1012.480284784529</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>1012.480284784529</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>601.4943799949219</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>183.5305718931088</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.708500331692</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2344.380435748109</v>
+        <v>1507.939751500712</v>
       </c>
       <c r="C5" t="n">
-        <v>1975.417918807697</v>
+        <v>1507.939751500712</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.152220200946</v>
+        <v>1149.674052893962</v>
       </c>
       <c r="E5" t="n">
-        <v>1231.363967602702</v>
+        <v>763.8858002957174</v>
       </c>
       <c r="F5" t="n">
-        <v>820.3780628130946</v>
+        <v>756.940299546514</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748109</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748109</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>2344.380435748109</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694737</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694737</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1090.256031232736</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>704.4677786344921</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>293.4818738448845</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>279.5584697834755</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.553390680693</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289.0740493317992</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>289.0740493317992</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>289.0740493317992</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>289.0740493317992</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>289.0740493317992</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>289.0740493317992</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>131.3256767643293</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620389</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>470.7225141620389</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.56914656307</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811478</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2373.979363934269</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.758180993049</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.722831322503</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549545</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>659.9741347416096</v>
+        <v>171.0738540998337</v>
       </c>
       <c r="C13" t="n">
-        <v>491.0379518137026</v>
+        <v>171.0738540998337</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0379518137026</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>343.1248582313095</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>343.1248582313095</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4220216060285</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4220216060285</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442055</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927008</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862227</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689053</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689053</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814697</v>
+        <v>1163.957642384229</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.03976960881</v>
+        <v>909.2731541783418</v>
       </c>
       <c r="W13" t="n">
-        <v>841.6225995718492</v>
+        <v>619.8559841413812</v>
       </c>
       <c r="X13" t="n">
-        <v>841.6225995718494</v>
+        <v>391.8664332433639</v>
       </c>
       <c r="Y13" t="n">
-        <v>841.6225995718494</v>
+        <v>171.0738540998337</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,10 +5264,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,25 +5279,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M14" t="n">
-        <v>2782.232616025903</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N14" t="n">
-        <v>3507.942201196468</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>958.1479941221957</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C16" t="n">
-        <v>789.2118111942888</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D16" t="n">
-        <v>639.095171781953</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>639.095171781953</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>492.2052242840426</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5023876587616</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>178.2852008766194</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5440,16 +5440,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.554715057173</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.137545020213</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X16" t="n">
-        <v>958.1479941221957</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y16" t="n">
-        <v>958.1479941221957</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969822</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196468</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,49 +5595,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>772.0880968097393</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.870226851287</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.870226851287</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>992.8806759532695</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>772.0880968097393</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,43 +5753,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2536.15366264131</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>3130.950021746351</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4323.814463278081</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>973.7726509601081</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1913.595286070923</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1721.909401897749</v>
       </c>
       <c r="T22" t="n">
-        <v>1630.898183139765</v>
+        <v>1500.142786467275</v>
       </c>
       <c r="U22" t="n">
-        <v>1630.898183139765</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V22" t="n">
-        <v>1376.213694933878</v>
+        <v>956.3554313870317</v>
       </c>
       <c r="W22" t="n">
-        <v>1376.213694933878</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X22" t="n">
-        <v>1376.213694933878</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>1155.421115790348</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M23" t="n">
-        <v>2504.619866888352</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N23" t="n">
-        <v>3051.398683947134</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O23" t="n">
-        <v>3931.363334276589</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4326.137700633767</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.4617675965553</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C25" t="n">
-        <v>680.5255846686484</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.576850674229</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.892362468343</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.892362468343</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.902811570325</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.110232426795</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>362.7597382730061</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>193.8235553450992</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1901.972714309839</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1710.286830136665</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431757</v>
+        <v>1488.520214706191</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1199.417347831835</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>944.7328596259478</v>
       </c>
       <c r="W28" t="n">
-        <v>811.5418683145535</v>
+        <v>655.3156895889872</v>
       </c>
       <c r="X28" t="n">
-        <v>583.5523174165362</v>
+        <v>427.3261386909699</v>
       </c>
       <c r="Y28" t="n">
-        <v>362.7597382730061</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,19 +6461,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>973.7726509601081</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C31" t="n">
-        <v>804.8364680322012</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D31" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1866.513008862231</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1611.828520656344</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1604.203245831895</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>1376.213694933878</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>1155.421115790348</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1849.525439218844</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6780,49 +6780,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.6138567886371</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C34" t="n">
-        <v>245.6776738607302</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E34" t="n">
         <v>95.56103444839442</v>
@@ -6862,10 +6862,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1407.497645073032</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1152.813156867145</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>863.3959868301846</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>635.4064359321673</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>414.6138567886371</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M35" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>3515.905934867957</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O35" t="n">
-        <v>4018.878405747294</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4413.652772104471</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,37 +7017,37 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>315.8824392759671</v>
+        <v>407.7004468637319</v>
       </c>
       <c r="C37" t="n">
-        <v>148.0131808818031</v>
+        <v>239.8311884695678</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>239.8311884695678</v>
       </c>
       <c r="E37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152493</v>
+        <v>346.7622353152489</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992667</v>
+        <v>664.3677264992662</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275722</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100837</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280144</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1685.326515640713</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452713</v>
+        <v>1464.626824743982</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.3544151121</v>
+        <v>1176.590882403368</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439956</v>
+        <v>922.9733187312243</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367383</v>
+        <v>634.6230732280064</v>
       </c>
       <c r="X37" t="n">
-        <v>496.4639795724639</v>
+        <v>407.7004468637319</v>
       </c>
       <c r="Y37" t="n">
-        <v>496.4639795724639</v>
+        <v>407.7004468637319</v>
       </c>
     </row>
     <row r="38">
@@ -7175,43 +7175,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P38" t="n">
-        <v>4231.233819318589</v>
+        <v>4379.795738995828</v>
       </c>
       <c r="Q38" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468568</v>
@@ -7251,19 +7251,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,22 +7281,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430899</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
         <v>364.4578361932524</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7394,13 +7394,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,22 +7412,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430891</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160442</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819753</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7588,19 +7588,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>285.7011105564325</v>
+        <v>96.13798426930737</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.496531173600829e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>180.7381496078621</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>441.4693580670868</v>
+        <v>295.4822118493983</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>48.50256772349326</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>148.4180109385398</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>272.8828616575882</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>146.0713065388573</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>229.1543674071818</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>294.8707872801647</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476861</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.67224444723777</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>26.15484791631846</v>
       </c>
       <c r="R38" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>26.15484791631889</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>142.1686942807567</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328752</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>17.29004312378047</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>73.85778156328854</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>14.45549564589537</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>51.71826869926305</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>46.61145443660413</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>87.12714447232179</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>25.70243949644129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24412,19 +24412,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>183.3889571555942</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>51.33557733047463</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>35.10510839313105</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>73.8577815632884</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24886,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>278.9739762603863</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>71.67627119164521</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>152.1724499918687</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>95.63159276073227</v>
+        <v>147.559217729807</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>2.550254877202129</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>144.3647927345259</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>164.9695529706229</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259153</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143258</v>
+        <v>95.29616512143275</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164183</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>217.5283980636894</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1064183.834966471</v>
+        <v>1064183.834966472</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26320,22 +26320,22 @@
         <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
+        <v>377227.6975426342</v>
+      </c>
+      <c r="F2" t="n">
+        <v>377227.6975426342</v>
+      </c>
+      <c r="G2" t="n">
         <v>377227.6975426338</v>
-      </c>
-      <c r="F2" t="n">
-        <v>377227.697542634</v>
-      </c>
-      <c r="G2" t="n">
-        <v>377227.6975426339</v>
       </c>
       <c r="H2" t="n">
         <v>377227.6975426342</v>
       </c>
       <c r="I2" t="n">
-        <v>377227.6975426342</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="J2" t="n">
-        <v>377227.6975426339</v>
+        <v>377227.697542634</v>
       </c>
       <c r="K2" t="n">
         <v>377227.6975426342</v>
@@ -26344,16 +26344,16 @@
         <v>377227.697542634</v>
       </c>
       <c r="M2" t="n">
-        <v>377514.7720129436</v>
+        <v>377514.7720129438</v>
       </c>
       <c r="N2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="O2" t="n">
         <v>389994.8406855347</v>
       </c>
-      <c r="O2" t="n">
-        <v>389994.8406855345</v>
-      </c>
       <c r="P2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855349</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934049</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857255e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696691</v>
+        <v>130487.3190696688</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414965</v>
+        <v>36735.10506415006</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231919009</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
@@ -26436,25 +26436,25 @@
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811454</v>
+        <v>18496.05294811455</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955459</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-466180.8034495473</v>
+        <v>-466180.8034495475</v>
       </c>
       <c r="C6" t="n">
-        <v>123787.0757649971</v>
+        <v>123787.075764997</v>
       </c>
       <c r="D6" t="n">
-        <v>123787.0757649971</v>
+        <v>123787.075764997</v>
       </c>
       <c r="E6" t="n">
-        <v>-464681.7270236749</v>
+        <v>-464748.9225139021</v>
       </c>
       <c r="F6" t="n">
-        <v>262695.6869697286</v>
+        <v>262628.4914795047</v>
       </c>
       <c r="G6" t="n">
-        <v>262695.6869697303</v>
+        <v>262628.4914795044</v>
       </c>
       <c r="H6" t="n">
-        <v>262695.6869697305</v>
+        <v>262628.4914795048</v>
       </c>
       <c r="I6" t="n">
-        <v>262695.6869697305</v>
+        <v>262628.4914795045</v>
       </c>
       <c r="J6" t="n">
-        <v>86272.4677771374</v>
+        <v>86205.2722869117</v>
       </c>
       <c r="K6" t="n">
-        <v>262695.6869697306</v>
+        <v>262628.4914795047</v>
       </c>
       <c r="L6" t="n">
-        <v>262695.6869697304</v>
+        <v>262628.4914795046</v>
       </c>
       <c r="M6" t="n">
-        <v>132059.0834156053</v>
+        <v>131993.3988436448</v>
       </c>
       <c r="N6" t="n">
-        <v>219321.411309874</v>
+        <v>219321.4113098735</v>
       </c>
       <c r="O6" t="n">
-        <v>256056.5163740235</v>
+        <v>256056.5163740236</v>
       </c>
       <c r="P6" t="n">
-        <v>256056.5163740235</v>
+        <v>256056.5163740237</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018706</v>
+        <v>45.91888133018718</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762093</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>175.1818204265692</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>195.6310585923403</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>14.7085584187387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>130.8675288472106</v>
+        <v>41.73959823626416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.2436641085299</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>161.0812192668996</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>100.5634396808772</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>194.1370723978095</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>103.55671298635</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.091393642127514e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405502</v>
+        <v>1.056255288405379</v>
       </c>
     </row>
     <row r="38">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35264,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.336699126564</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923307</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>824.6222263866576</v>
+        <v>635.0591000995341</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129099</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.853182150963</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193705</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636232</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152067</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>422.7052121445763</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>733.0399850207735</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
@@ -35890,13 +35890,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>980.3904738973135</v>
+        <v>834.403327679625</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>600.8044031364047</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>399.2123157422593</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>610.0741482129887</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>396.8656113425768</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>627.9163536265537</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>750.4609016724969</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37230,7 +37230,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605971</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>308.4665492509573</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147173</v>
+        <v>46.63467190147155</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.1039148327249</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586036</v>
+        <v>320.8136274586034</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818891</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559453</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110451</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.0133264335157</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629915</v>
+        <v>79.45049382629895</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>276.9491527200379</v>
       </c>
       <c r="R38" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>565.0759637465457</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
@@ -38026,10 +38026,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>650.2216951689758</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
